--- a/biology/Zoologie/Eurylaime_de_Horsfield/Eurylaime_de_Horsfield.xlsx
+++ b/biology/Zoologie/Eurylaime_de_Horsfield/Eurylaime_de_Horsfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurylaimus javanicus
 L'Eurylaime de Horsfield (Eurylaimus javanicus) est une espèce de passereaux appartenant à la famille des Eurylaimidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cet eurylaime dans les forêts tropicales de l'Asie du Sud-Est.
 Il vit dans les arbres des forêts tropicales près des rivières, torrents et marécages. Parfois il s'aventure dans des plantations à l'abandon, dans les parcs et les jardins.
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'eurylaime de Horsfield a une grosse tête, un bec fort, un ventre et une tête plus ou moins pourprés et des ailes noires et jaunes.
 Il vit en couples ou en petits groupes.
-Il mange principalement des insectes tels des sauterelles et des criquets, des coléoptères et des chenilles mais aussi des araignées, de petits escargots et quelques fruits[1].
+Il mange principalement des insectes tels des sauterelles et des criquets, des coléoptères et des chenilles mais aussi des araignées, de petits escargots et quelques fruits.
 </t>
         </is>
       </c>
